--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_24FEB2020/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_24FEB2020/TL_Transformed_Data_BaseRate.xlsx
@@ -83,6 +83,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,7 +455,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -563,6 +631,81 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BANKBILL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.925</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>003M</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DEPOSIT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AUD,EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
